--- a/ResultadoEleicoesDistritos/VIANA DO CASTELO_VALENÇA.xlsx
+++ b/ResultadoEleicoesDistritos/VIANA DO CASTELO_VALENÇA.xlsx
@@ -597,25 +597,25 @@
         <v>3823</v>
       </c>
       <c r="H2" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I2" t="n">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="J2" t="n">
-        <v>1564</v>
+        <v>1591</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -627,34 +627,34 @@
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="S2" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="T2" t="n">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="U2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V2" t="n">
-        <v>2474</v>
+        <v>2452</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>2443</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
